--- a/2조.xlsx
+++ b/2조.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="520" activeTab="1"/>
+    <workbookView xWindow="360" yWindow="30" windowWidth="25755" windowHeight="11595" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Job List" sheetId="8" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2756" uniqueCount="2756">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2761" uniqueCount="2761">
   <si>
     <t>LT</t>
   </si>
@@ -8565,6 +8565,28 @@
       <t>DB에 저장되어있는 로그인유저의실시간위치정보와 시간 등록</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+      </rPr>
+      <t>ICS:infection control site</t>
+    </r>
+  </si>
+  <si>
+    <t>ICS</t>
+  </si>
+  <si>
+    <t>ICS</t>
+  </si>
+  <si>
+    <t>ICS</t>
+  </si>
+  <si>
+    <t>ICS</t>
+  </si>
 </sst>
 </file>
 
@@ -8574,7 +8596,7 @@
     <numFmt numFmtId="176" formatCode="&quot; &quot;@"/>
     <numFmt numFmtId="177" formatCode="#&quot; &quot;"/>
     <numFmt numFmtId="178" formatCode="&quot;  &quot;@"/>
-    <numFmt numFmtId="179" formatCode="&quot;₩&quot;#,##0;\\\-&quot;₩&quot;#,##0"/>
+    <numFmt numFmtId="179" formatCode="&quot;₩&quot;#,##0;!\\-&quot;₩&quot;#,##0"/>
     <numFmt numFmtId="180" formatCode="&quot; &quot;@"/>
   </numFmts>
   <fonts count="71">
@@ -20003,8 +20025,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -20050,14 +20072,14 @@
       </c>
       <c r="B3" s="800"/>
       <c r="C3" s="109" t="s">
-        <v>2516</v>
+        <v>2634</v>
       </c>
       <c r="D3" s="801" t="s">
         <v>2404</v>
       </c>
       <c r="E3" s="799"/>
       <c r="F3" s="1105" t="s">
-        <v>2591</v>
+        <v>2756</v>
       </c>
       <c r="G3" s="803"/>
       <c r="H3" s="27"/>
@@ -20975,10 +20997,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J196"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" tabSelected="1" zoomScale="90" workbookViewId="0">
-      <selection activeCell="K57" sqref="K57"/>
+    <sheetView zoomScale="90" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -21016,7 +21038,7 @@
       </c>
       <c r="B3" s="800"/>
       <c r="C3" s="803" t="s">
-        <v>2336</v>
+        <v>2634</v>
       </c>
       <c r="D3" s="812"/>
       <c r="E3" s="813"/>
@@ -21874,1611 +21896,8 @@
       <c r="I62" s="1053"/>
       <c r="J62" s="1054"/>
     </row>
-    <row r="63" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A63" s="821"/>
-      <c r="B63" s="876"/>
-      <c r="C63" s="868"/>
-      <c r="D63" s="1033"/>
-      <c r="E63" s="1034"/>
-      <c r="F63" s="1034"/>
-      <c r="G63" s="1035"/>
-      <c r="H63" s="839"/>
-      <c r="I63" s="831"/>
-      <c r="J63" s="833"/>
-    </row>
-    <row r="64" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A64" s="821"/>
-      <c r="B64" s="876"/>
-      <c r="C64" s="868"/>
-      <c r="D64" s="815"/>
-      <c r="E64" s="816"/>
-      <c r="F64" s="816"/>
-      <c r="G64" s="817"/>
-      <c r="H64" s="839"/>
-      <c r="I64" s="831"/>
-      <c r="J64" s="833"/>
-    </row>
-    <row r="65" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A65" s="821"/>
-      <c r="B65" s="876"/>
-      <c r="C65" s="868"/>
-      <c r="D65" s="815"/>
-      <c r="E65" s="816"/>
-      <c r="F65" s="816"/>
-      <c r="G65" s="817"/>
-      <c r="H65" s="839"/>
-      <c r="I65" s="831"/>
-      <c r="J65" s="833"/>
-    </row>
-    <row r="66" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A66" s="821"/>
-      <c r="B66" s="876"/>
-      <c r="C66" s="868"/>
-      <c r="D66" s="815"/>
-      <c r="E66" s="816"/>
-      <c r="F66" s="816"/>
-      <c r="G66" s="817"/>
-      <c r="H66" s="839"/>
-      <c r="I66" s="831"/>
-      <c r="J66" s="833"/>
-    </row>
-    <row r="67" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A67" s="821"/>
-      <c r="B67" s="876"/>
-      <c r="C67" s="868"/>
-      <c r="D67" s="815"/>
-      <c r="E67" s="816"/>
-      <c r="F67" s="816"/>
-      <c r="G67" s="817"/>
-      <c r="H67" s="839"/>
-      <c r="I67" s="831"/>
-      <c r="J67" s="833"/>
-    </row>
-    <row r="68" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A68" s="821"/>
-      <c r="B68" s="876"/>
-      <c r="C68" s="868"/>
-      <c r="D68" s="815"/>
-      <c r="E68" s="816"/>
-      <c r="F68" s="816"/>
-      <c r="G68" s="817"/>
-      <c r="H68" s="839"/>
-      <c r="I68" s="831"/>
-      <c r="J68" s="833"/>
-    </row>
-    <row r="69" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A69" s="821"/>
-      <c r="B69" s="876"/>
-      <c r="C69" s="868"/>
-      <c r="D69" s="815"/>
-      <c r="E69" s="816"/>
-      <c r="F69" s="816"/>
-      <c r="G69" s="817"/>
-      <c r="H69" s="839"/>
-      <c r="I69" s="831"/>
-      <c r="J69" s="833"/>
-    </row>
-    <row r="70" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A70" s="821"/>
-      <c r="B70" s="876"/>
-      <c r="C70" s="868"/>
-      <c r="D70" s="815"/>
-      <c r="E70" s="816"/>
-      <c r="F70" s="816"/>
-      <c r="G70" s="817"/>
-      <c r="H70" s="839"/>
-      <c r="I70" s="831"/>
-      <c r="J70" s="833"/>
-    </row>
-    <row r="71" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A71" s="821"/>
-      <c r="B71" s="876"/>
-      <c r="C71" s="868"/>
-      <c r="D71" s="815"/>
-      <c r="E71" s="816"/>
-      <c r="F71" s="816"/>
-      <c r="G71" s="817"/>
-      <c r="H71" s="839"/>
-      <c r="I71" s="831"/>
-      <c r="J71" s="833"/>
-    </row>
-    <row r="72" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A72" s="821"/>
-      <c r="B72" s="876"/>
-      <c r="C72" s="868"/>
-      <c r="D72" s="815"/>
-      <c r="E72" s="816"/>
-      <c r="F72" s="816"/>
-      <c r="G72" s="817"/>
-      <c r="H72" s="839"/>
-      <c r="I72" s="831"/>
-      <c r="J72" s="833"/>
-    </row>
-    <row r="73" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A73" s="821"/>
-      <c r="B73" s="876"/>
-      <c r="C73" s="868"/>
-      <c r="D73" s="815"/>
-      <c r="E73" s="816"/>
-      <c r="F73" s="816"/>
-      <c r="G73" s="817"/>
-      <c r="H73" s="839"/>
-      <c r="I73" s="831"/>
-      <c r="J73" s="833"/>
-    </row>
-    <row r="74" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A74" s="821"/>
-      <c r="B74" s="876"/>
-      <c r="C74" s="868"/>
-      <c r="D74" s="815"/>
-      <c r="E74" s="816"/>
-      <c r="F74" s="816"/>
-      <c r="G74" s="817"/>
-      <c r="H74" s="839"/>
-      <c r="I74" s="831"/>
-      <c r="J74" s="833"/>
-    </row>
-    <row r="75" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A75" s="821"/>
-      <c r="B75" s="876"/>
-      <c r="C75" s="868"/>
-      <c r="D75" s="815"/>
-      <c r="E75" s="816"/>
-      <c r="F75" s="816"/>
-      <c r="G75" s="817"/>
-      <c r="H75" s="839"/>
-      <c r="I75" s="831"/>
-      <c r="J75" s="833"/>
-    </row>
-    <row r="76" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A76" s="821"/>
-      <c r="B76" s="876"/>
-      <c r="C76" s="868"/>
-      <c r="D76" s="815"/>
-      <c r="E76" s="816"/>
-      <c r="F76" s="816"/>
-      <c r="G76" s="817"/>
-      <c r="H76" s="839"/>
-      <c r="I76" s="831"/>
-      <c r="J76" s="833"/>
-    </row>
-    <row r="77" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A77" s="821"/>
-      <c r="B77" s="876"/>
-      <c r="C77" s="868"/>
-      <c r="D77" s="815"/>
-      <c r="E77" s="816"/>
-      <c r="F77" s="816"/>
-      <c r="G77" s="817"/>
-      <c r="H77" s="839"/>
-      <c r="I77" s="831"/>
-      <c r="J77" s="833"/>
-    </row>
-    <row r="78" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A78" s="821"/>
-      <c r="B78" s="876"/>
-      <c r="C78" s="868"/>
-      <c r="D78" s="815"/>
-      <c r="E78" s="816"/>
-      <c r="F78" s="816"/>
-      <c r="G78" s="817"/>
-      <c r="H78" s="839"/>
-      <c r="I78" s="831"/>
-      <c r="J78" s="833"/>
-    </row>
-    <row r="79" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A79" s="821"/>
-      <c r="B79" s="876"/>
-      <c r="C79" s="868"/>
-      <c r="D79" s="815"/>
-      <c r="E79" s="816"/>
-      <c r="F79" s="816"/>
-      <c r="G79" s="817"/>
-      <c r="H79" s="839"/>
-      <c r="I79" s="831"/>
-      <c r="J79" s="833"/>
-    </row>
-    <row r="80" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A80" s="822"/>
-      <c r="B80" s="877"/>
-      <c r="C80" s="878"/>
-      <c r="D80" s="815"/>
-      <c r="E80" s="816"/>
-      <c r="F80" s="816"/>
-      <c r="G80" s="817"/>
-      <c r="H80" s="840"/>
-      <c r="I80" s="841"/>
-      <c r="J80" s="842"/>
-    </row>
-    <row r="81" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A81" s="820"/>
-      <c r="B81" s="875"/>
-      <c r="C81" s="866"/>
-      <c r="D81" s="829"/>
-      <c r="E81" s="829"/>
-      <c r="F81" s="829"/>
-      <c r="G81" s="829"/>
-      <c r="H81" s="838"/>
-      <c r="I81" s="830"/>
-      <c r="J81" s="832"/>
-    </row>
-    <row r="82" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A82" s="821"/>
-      <c r="B82" s="876"/>
-      <c r="C82" s="868"/>
-      <c r="D82" s="815"/>
-      <c r="E82" s="816"/>
-      <c r="F82" s="816"/>
-      <c r="G82" s="817"/>
-      <c r="H82" s="839"/>
-      <c r="I82" s="831"/>
-      <c r="J82" s="833"/>
-    </row>
-    <row r="83" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A83" s="821"/>
-      <c r="B83" s="876"/>
-      <c r="C83" s="868"/>
-      <c r="D83" s="815"/>
-      <c r="E83" s="816"/>
-      <c r="F83" s="816"/>
-      <c r="G83" s="817"/>
-      <c r="H83" s="839"/>
-      <c r="I83" s="831"/>
-      <c r="J83" s="833"/>
-    </row>
-    <row r="84" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A84" s="821"/>
-      <c r="B84" s="876"/>
-      <c r="C84" s="868"/>
-      <c r="D84" s="815"/>
-      <c r="E84" s="816"/>
-      <c r="F84" s="816"/>
-      <c r="G84" s="817"/>
-      <c r="H84" s="839"/>
-      <c r="I84" s="831"/>
-      <c r="J84" s="833"/>
-    </row>
-    <row r="85" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A85" s="821"/>
-      <c r="B85" s="876"/>
-      <c r="C85" s="868"/>
-      <c r="D85" s="869"/>
-      <c r="E85" s="870"/>
-      <c r="F85" s="870"/>
-      <c r="G85" s="871"/>
-      <c r="H85" s="839"/>
-      <c r="I85" s="831"/>
-      <c r="J85" s="833"/>
-    </row>
-    <row r="86" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A86" s="821"/>
-      <c r="B86" s="876"/>
-      <c r="C86" s="868"/>
-      <c r="D86" s="815"/>
-      <c r="E86" s="816"/>
-      <c r="F86" s="816"/>
-      <c r="G86" s="817"/>
-      <c r="H86" s="839"/>
-      <c r="I86" s="831"/>
-      <c r="J86" s="833"/>
-    </row>
-    <row r="87" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A87" s="821"/>
-      <c r="B87" s="876"/>
-      <c r="C87" s="868"/>
-      <c r="D87" s="815"/>
-      <c r="E87" s="816"/>
-      <c r="F87" s="816"/>
-      <c r="G87" s="817"/>
-      <c r="H87" s="839"/>
-      <c r="I87" s="831"/>
-      <c r="J87" s="833"/>
-    </row>
-    <row r="88" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A88" s="821"/>
-      <c r="B88" s="876"/>
-      <c r="C88" s="868"/>
-      <c r="D88" s="818"/>
-      <c r="E88" s="818"/>
-      <c r="F88" s="818"/>
-      <c r="G88" s="818"/>
-      <c r="H88" s="839"/>
-      <c r="I88" s="831"/>
-      <c r="J88" s="833"/>
-    </row>
-    <row r="89" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A89" s="821"/>
-      <c r="B89" s="876"/>
-      <c r="C89" s="868"/>
-      <c r="D89" s="815"/>
-      <c r="E89" s="816"/>
-      <c r="F89" s="816"/>
-      <c r="G89" s="817"/>
-      <c r="H89" s="839"/>
-      <c r="I89" s="831"/>
-      <c r="J89" s="833"/>
-    </row>
-    <row r="90" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A90" s="821"/>
-      <c r="B90" s="876"/>
-      <c r="C90" s="868"/>
-      <c r="D90" s="815"/>
-      <c r="E90" s="816"/>
-      <c r="F90" s="816"/>
-      <c r="G90" s="817"/>
-      <c r="H90" s="839"/>
-      <c r="I90" s="831"/>
-      <c r="J90" s="833"/>
-    </row>
-    <row r="91" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A91" s="821"/>
-      <c r="B91" s="876"/>
-      <c r="C91" s="868"/>
-      <c r="D91" s="815"/>
-      <c r="E91" s="816"/>
-      <c r="F91" s="816"/>
-      <c r="G91" s="817"/>
-      <c r="H91" s="839"/>
-      <c r="I91" s="831"/>
-      <c r="J91" s="833"/>
-    </row>
-    <row r="92" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A92" s="821"/>
-      <c r="B92" s="876"/>
-      <c r="C92" s="868"/>
-      <c r="D92" s="815"/>
-      <c r="E92" s="816"/>
-      <c r="F92" s="816"/>
-      <c r="G92" s="817"/>
-      <c r="H92" s="839"/>
-      <c r="I92" s="831"/>
-      <c r="J92" s="833"/>
-    </row>
-    <row r="93" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A93" s="821"/>
-      <c r="B93" s="876"/>
-      <c r="C93" s="868"/>
-      <c r="D93" s="815"/>
-      <c r="E93" s="816"/>
-      <c r="F93" s="816"/>
-      <c r="G93" s="817"/>
-      <c r="H93" s="839"/>
-      <c r="I93" s="831"/>
-      <c r="J93" s="833"/>
-    </row>
-    <row r="94" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A94" s="822"/>
-      <c r="B94" s="877"/>
-      <c r="C94" s="878"/>
-      <c r="D94" s="815"/>
-      <c r="E94" s="816"/>
-      <c r="F94" s="816"/>
-      <c r="G94" s="817"/>
-      <c r="H94" s="840"/>
-      <c r="I94" s="841"/>
-      <c r="J94" s="842"/>
-    </row>
-    <row r="95" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A95" s="820"/>
-      <c r="B95" s="875"/>
-      <c r="C95" s="866"/>
-      <c r="D95" s="819"/>
-      <c r="E95" s="819"/>
-      <c r="F95" s="819"/>
-      <c r="G95" s="819"/>
-      <c r="H95" s="838"/>
-      <c r="I95" s="830"/>
-      <c r="J95" s="832"/>
-    </row>
-    <row r="96" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A96" s="821"/>
-      <c r="B96" s="876"/>
-      <c r="C96" s="868"/>
-      <c r="D96" s="815"/>
-      <c r="E96" s="816"/>
-      <c r="F96" s="816"/>
-      <c r="G96" s="817"/>
-      <c r="H96" s="839"/>
-      <c r="I96" s="831"/>
-      <c r="J96" s="833"/>
-    </row>
-    <row r="97" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A97" s="821"/>
-      <c r="B97" s="876"/>
-      <c r="C97" s="868"/>
-      <c r="D97" s="815"/>
-      <c r="E97" s="816"/>
-      <c r="F97" s="816"/>
-      <c r="G97" s="817"/>
-      <c r="H97" s="839"/>
-      <c r="I97" s="831"/>
-      <c r="J97" s="833"/>
-    </row>
-    <row r="98" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A98" s="821"/>
-      <c r="B98" s="876"/>
-      <c r="C98" s="868"/>
-      <c r="D98" s="815"/>
-      <c r="E98" s="816"/>
-      <c r="F98" s="816"/>
-      <c r="G98" s="817"/>
-      <c r="H98" s="839"/>
-      <c r="I98" s="831"/>
-      <c r="J98" s="833"/>
-    </row>
-    <row r="99" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A99" s="821"/>
-      <c r="B99" s="876"/>
-      <c r="C99" s="868"/>
-      <c r="D99" s="818"/>
-      <c r="E99" s="818"/>
-      <c r="F99" s="818"/>
-      <c r="G99" s="818"/>
-      <c r="H99" s="839"/>
-      <c r="I99" s="831"/>
-      <c r="J99" s="833"/>
-    </row>
-    <row r="100" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A100" s="821"/>
-      <c r="B100" s="876"/>
-      <c r="C100" s="868"/>
-      <c r="D100" s="818"/>
-      <c r="E100" s="818"/>
-      <c r="F100" s="818"/>
-      <c r="G100" s="818"/>
-      <c r="H100" s="839"/>
-      <c r="I100" s="831"/>
-      <c r="J100" s="833"/>
-    </row>
-    <row r="101" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A101" s="821"/>
-      <c r="B101" s="876"/>
-      <c r="C101" s="868"/>
-      <c r="D101" s="815"/>
-      <c r="E101" s="816"/>
-      <c r="F101" s="816"/>
-      <c r="G101" s="817"/>
-      <c r="H101" s="839"/>
-      <c r="I101" s="831"/>
-      <c r="J101" s="833"/>
-    </row>
-    <row r="102" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A102" s="821"/>
-      <c r="B102" s="876"/>
-      <c r="C102" s="868"/>
-      <c r="D102" s="815"/>
-      <c r="E102" s="816"/>
-      <c r="F102" s="816"/>
-      <c r="G102" s="817"/>
-      <c r="H102" s="839"/>
-      <c r="I102" s="831"/>
-      <c r="J102" s="833"/>
-    </row>
-    <row r="103" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A103" s="821"/>
-      <c r="B103" s="876"/>
-      <c r="C103" s="868"/>
-      <c r="D103" s="815"/>
-      <c r="E103" s="816"/>
-      <c r="F103" s="816"/>
-      <c r="G103" s="817"/>
-      <c r="H103" s="839"/>
-      <c r="I103" s="831"/>
-      <c r="J103" s="833"/>
-    </row>
-    <row r="104" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A104" s="821"/>
-      <c r="B104" s="876"/>
-      <c r="C104" s="868"/>
-      <c r="D104" s="815"/>
-      <c r="E104" s="816"/>
-      <c r="F104" s="816"/>
-      <c r="G104" s="817"/>
-      <c r="H104" s="839"/>
-      <c r="I104" s="831"/>
-      <c r="J104" s="833"/>
-    </row>
-    <row r="105" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A105" s="821"/>
-      <c r="B105" s="876"/>
-      <c r="C105" s="868"/>
-      <c r="D105" s="815"/>
-      <c r="E105" s="816"/>
-      <c r="F105" s="816"/>
-      <c r="G105" s="817"/>
-      <c r="H105" s="839"/>
-      <c r="I105" s="831"/>
-      <c r="J105" s="833"/>
-    </row>
-    <row r="106" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A106" s="821"/>
-      <c r="B106" s="876"/>
-      <c r="C106" s="868"/>
-      <c r="D106" s="834"/>
-      <c r="E106" s="834"/>
-      <c r="F106" s="834"/>
-      <c r="G106" s="834"/>
-      <c r="H106" s="839"/>
-      <c r="I106" s="831"/>
-      <c r="J106" s="833"/>
-    </row>
-    <row r="107" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A107" s="821"/>
-      <c r="B107" s="876"/>
-      <c r="C107" s="868"/>
-      <c r="D107" s="818"/>
-      <c r="E107" s="818"/>
-      <c r="F107" s="818"/>
-      <c r="G107" s="818"/>
-      <c r="H107" s="839"/>
-      <c r="I107" s="831"/>
-      <c r="J107" s="833"/>
-    </row>
-    <row r="108" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A108" s="821"/>
-      <c r="B108" s="876"/>
-      <c r="C108" s="868"/>
-      <c r="D108" s="815"/>
-      <c r="E108" s="816"/>
-      <c r="F108" s="816"/>
-      <c r="G108" s="817"/>
-      <c r="H108" s="839"/>
-      <c r="I108" s="831"/>
-      <c r="J108" s="833"/>
-    </row>
-    <row r="109" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A109" s="821"/>
-      <c r="B109" s="876"/>
-      <c r="C109" s="868"/>
-      <c r="D109" s="815"/>
-      <c r="E109" s="816"/>
-      <c r="F109" s="816"/>
-      <c r="G109" s="817"/>
-      <c r="H109" s="839"/>
-      <c r="I109" s="831"/>
-      <c r="J109" s="833"/>
-    </row>
-    <row r="110" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A110" s="821"/>
-      <c r="B110" s="876"/>
-      <c r="C110" s="868"/>
-      <c r="D110" s="815"/>
-      <c r="E110" s="816"/>
-      <c r="F110" s="816"/>
-      <c r="G110" s="817"/>
-      <c r="H110" s="839"/>
-      <c r="I110" s="831"/>
-      <c r="J110" s="833"/>
-    </row>
-    <row r="111" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A111" s="821"/>
-      <c r="B111" s="876"/>
-      <c r="C111" s="868"/>
-      <c r="D111" s="815"/>
-      <c r="E111" s="816"/>
-      <c r="F111" s="816"/>
-      <c r="G111" s="817"/>
-      <c r="H111" s="839"/>
-      <c r="I111" s="831"/>
-      <c r="J111" s="833"/>
-    </row>
-    <row r="112" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A112" s="821"/>
-      <c r="B112" s="876"/>
-      <c r="C112" s="868"/>
-      <c r="D112" s="815"/>
-      <c r="E112" s="816"/>
-      <c r="F112" s="816"/>
-      <c r="G112" s="817"/>
-      <c r="H112" s="839"/>
-      <c r="I112" s="831"/>
-      <c r="J112" s="833"/>
-    </row>
-    <row r="113" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A113" s="821"/>
-      <c r="B113" s="876"/>
-      <c r="C113" s="868"/>
-      <c r="D113" s="818"/>
-      <c r="E113" s="818"/>
-      <c r="F113" s="818"/>
-      <c r="G113" s="818"/>
-      <c r="H113" s="839"/>
-      <c r="I113" s="831"/>
-      <c r="J113" s="833"/>
-    </row>
-    <row r="114" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A114" s="821"/>
-      <c r="B114" s="876"/>
-      <c r="C114" s="868"/>
-      <c r="D114" s="834"/>
-      <c r="E114" s="834"/>
-      <c r="F114" s="834"/>
-      <c r="G114" s="834"/>
-      <c r="H114" s="245"/>
-      <c r="I114" s="246"/>
-      <c r="J114" s="247"/>
-    </row>
-    <row r="115" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A115" s="821"/>
-      <c r="B115" s="876"/>
-      <c r="C115" s="868"/>
-      <c r="D115" s="815"/>
-      <c r="E115" s="816"/>
-      <c r="F115" s="816"/>
-      <c r="G115" s="817"/>
-      <c r="H115" s="245"/>
-      <c r="I115" s="246"/>
-      <c r="J115" s="247"/>
-    </row>
-    <row r="116" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A116" s="821"/>
-      <c r="B116" s="876"/>
-      <c r="C116" s="868"/>
-      <c r="D116" s="815"/>
-      <c r="E116" s="816"/>
-      <c r="F116" s="816"/>
-      <c r="G116" s="817"/>
-      <c r="H116" s="245"/>
-      <c r="I116" s="246"/>
-      <c r="J116" s="247"/>
-    </row>
-    <row r="117" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A117" s="821"/>
-      <c r="B117" s="876"/>
-      <c r="C117" s="868"/>
-      <c r="D117" s="815"/>
-      <c r="E117" s="816"/>
-      <c r="F117" s="816"/>
-      <c r="G117" s="817"/>
-      <c r="H117" s="245"/>
-      <c r="I117" s="246"/>
-      <c r="J117" s="247"/>
-    </row>
-    <row r="118" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A118" s="821"/>
-      <c r="B118" s="876"/>
-      <c r="C118" s="868"/>
-      <c r="D118" s="815"/>
-      <c r="E118" s="816"/>
-      <c r="F118" s="816"/>
-      <c r="G118" s="817"/>
-      <c r="H118" s="245"/>
-      <c r="I118" s="246"/>
-      <c r="J118" s="247"/>
-    </row>
-    <row r="119" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A119" s="821"/>
-      <c r="B119" s="876"/>
-      <c r="C119" s="868"/>
-      <c r="D119" s="815"/>
-      <c r="E119" s="816"/>
-      <c r="F119" s="816"/>
-      <c r="G119" s="817"/>
-      <c r="H119" s="245"/>
-      <c r="I119" s="246"/>
-      <c r="J119" s="247"/>
-    </row>
-    <row r="120" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A120" s="821"/>
-      <c r="B120" s="876"/>
-      <c r="C120" s="868"/>
-      <c r="D120" s="815"/>
-      <c r="E120" s="816"/>
-      <c r="F120" s="816"/>
-      <c r="G120" s="817"/>
-      <c r="H120" s="245"/>
-      <c r="I120" s="246"/>
-      <c r="J120" s="247"/>
-    </row>
-    <row r="121" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A121" s="821"/>
-      <c r="B121" s="876"/>
-      <c r="C121" s="868"/>
-      <c r="D121" s="815"/>
-      <c r="E121" s="816"/>
-      <c r="F121" s="816"/>
-      <c r="G121" s="817"/>
-      <c r="H121" s="245"/>
-      <c r="I121" s="246"/>
-      <c r="J121" s="247"/>
-    </row>
-    <row r="122" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A122" s="821"/>
-      <c r="B122" s="876"/>
-      <c r="C122" s="868"/>
-      <c r="D122" s="815"/>
-      <c r="E122" s="816"/>
-      <c r="F122" s="816"/>
-      <c r="G122" s="817"/>
-      <c r="H122" s="245"/>
-      <c r="I122" s="246"/>
-      <c r="J122" s="247"/>
-    </row>
-    <row r="123" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A123" s="821"/>
-      <c r="B123" s="876"/>
-      <c r="C123" s="868"/>
-      <c r="D123" s="815"/>
-      <c r="E123" s="816"/>
-      <c r="F123" s="816"/>
-      <c r="G123" s="817"/>
-      <c r="H123" s="245"/>
-      <c r="I123" s="246"/>
-      <c r="J123" s="247"/>
-    </row>
-    <row r="124" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A124" s="821"/>
-      <c r="B124" s="876"/>
-      <c r="C124" s="868"/>
-      <c r="D124" s="815"/>
-      <c r="E124" s="816"/>
-      <c r="F124" s="816"/>
-      <c r="G124" s="817"/>
-      <c r="H124" s="245"/>
-      <c r="I124" s="246"/>
-      <c r="J124" s="247"/>
-    </row>
-    <row r="125" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A125" s="821"/>
-      <c r="B125" s="876"/>
-      <c r="C125" s="868"/>
-      <c r="D125" s="815"/>
-      <c r="E125" s="816"/>
-      <c r="F125" s="816"/>
-      <c r="G125" s="817"/>
-      <c r="H125" s="245"/>
-      <c r="I125" s="246"/>
-      <c r="J125" s="247"/>
-    </row>
-    <row r="126" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A126" s="821"/>
-      <c r="B126" s="876"/>
-      <c r="C126" s="868"/>
-      <c r="D126" s="815"/>
-      <c r="E126" s="816"/>
-      <c r="F126" s="816"/>
-      <c r="G126" s="817"/>
-      <c r="H126" s="245"/>
-      <c r="I126" s="246"/>
-      <c r="J126" s="247"/>
-    </row>
-    <row r="127" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A127" s="821"/>
-      <c r="B127" s="876"/>
-      <c r="C127" s="868"/>
-      <c r="D127" s="815"/>
-      <c r="E127" s="816"/>
-      <c r="F127" s="816"/>
-      <c r="G127" s="817"/>
-      <c r="H127" s="245"/>
-      <c r="I127" s="246"/>
-      <c r="J127" s="247"/>
-    </row>
-    <row r="128" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A128" s="821"/>
-      <c r="B128" s="876"/>
-      <c r="C128" s="868"/>
-      <c r="D128" s="815"/>
-      <c r="E128" s="816"/>
-      <c r="F128" s="816"/>
-      <c r="G128" s="817"/>
-      <c r="H128" s="245"/>
-      <c r="I128" s="246"/>
-      <c r="J128" s="247"/>
-    </row>
-    <row r="129" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A129" s="821"/>
-      <c r="B129" s="876"/>
-      <c r="C129" s="868"/>
-      <c r="D129" s="815"/>
-      <c r="E129" s="816"/>
-      <c r="F129" s="816"/>
-      <c r="G129" s="817"/>
-      <c r="H129" s="245"/>
-      <c r="I129" s="246"/>
-      <c r="J129" s="247"/>
-    </row>
-    <row r="130" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A130" s="821"/>
-      <c r="B130" s="876"/>
-      <c r="C130" s="868"/>
-      <c r="D130" s="815"/>
-      <c r="E130" s="816"/>
-      <c r="F130" s="816"/>
-      <c r="G130" s="817"/>
-      <c r="H130" s="245"/>
-      <c r="I130" s="246"/>
-      <c r="J130" s="247"/>
-    </row>
-    <row r="131" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A131" s="821"/>
-      <c r="B131" s="876"/>
-      <c r="C131" s="868"/>
-      <c r="D131" s="815"/>
-      <c r="E131" s="816"/>
-      <c r="F131" s="816"/>
-      <c r="G131" s="817"/>
-      <c r="H131" s="245"/>
-      <c r="I131" s="246"/>
-      <c r="J131" s="247"/>
-    </row>
-    <row r="132" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A132" s="821"/>
-      <c r="B132" s="876"/>
-      <c r="C132" s="868"/>
-      <c r="D132" s="882"/>
-      <c r="E132" s="883"/>
-      <c r="F132" s="883"/>
-      <c r="G132" s="884"/>
-      <c r="H132" s="245"/>
-      <c r="I132" s="246"/>
-      <c r="J132" s="247"/>
-    </row>
-    <row r="133" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A133" s="821"/>
-      <c r="B133" s="876"/>
-      <c r="C133" s="868"/>
-      <c r="D133" s="815"/>
-      <c r="E133" s="816"/>
-      <c r="F133" s="816"/>
-      <c r="G133" s="817"/>
-      <c r="H133" s="245"/>
-      <c r="I133" s="246"/>
-      <c r="J133" s="247"/>
-    </row>
-    <row r="134" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A134" s="821"/>
-      <c r="B134" s="876"/>
-      <c r="C134" s="868"/>
-      <c r="D134" s="843"/>
-      <c r="E134" s="844"/>
-      <c r="F134" s="844"/>
-      <c r="G134" s="845"/>
-      <c r="H134" s="245"/>
-      <c r="I134" s="246"/>
-      <c r="J134" s="247"/>
-    </row>
-    <row r="135" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A135" s="821"/>
-      <c r="B135" s="876"/>
-      <c r="C135" s="868"/>
-      <c r="D135" s="815"/>
-      <c r="E135" s="816"/>
-      <c r="F135" s="816"/>
-      <c r="G135" s="817"/>
-      <c r="H135" s="245"/>
-      <c r="I135" s="246"/>
-      <c r="J135" s="247"/>
-    </row>
-    <row r="136" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A136" s="821"/>
-      <c r="B136" s="876"/>
-      <c r="C136" s="868"/>
-      <c r="D136" s="815"/>
-      <c r="E136" s="816"/>
-      <c r="F136" s="816"/>
-      <c r="G136" s="817"/>
-      <c r="H136" s="245"/>
-      <c r="I136" s="246"/>
-      <c r="J136" s="247"/>
-    </row>
-    <row r="137" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A137" s="821"/>
-      <c r="B137" s="876"/>
-      <c r="C137" s="868"/>
-      <c r="D137" s="815"/>
-      <c r="E137" s="816"/>
-      <c r="F137" s="816"/>
-      <c r="G137" s="817"/>
-      <c r="H137" s="245"/>
-      <c r="I137" s="246"/>
-      <c r="J137" s="247"/>
-    </row>
-    <row r="138" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A138" s="821"/>
-      <c r="B138" s="876"/>
-      <c r="C138" s="868"/>
-      <c r="D138" s="882"/>
-      <c r="E138" s="883"/>
-      <c r="F138" s="883"/>
-      <c r="G138" s="884"/>
-      <c r="H138" s="245"/>
-      <c r="I138" s="246"/>
-      <c r="J138" s="247"/>
-    </row>
-    <row r="139" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A139" s="821"/>
-      <c r="B139" s="876"/>
-      <c r="C139" s="868"/>
-      <c r="D139" s="815"/>
-      <c r="E139" s="816"/>
-      <c r="F139" s="816"/>
-      <c r="G139" s="817"/>
-      <c r="H139" s="245"/>
-      <c r="I139" s="246"/>
-      <c r="J139" s="247"/>
-    </row>
-    <row r="140" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A140" s="821"/>
-      <c r="B140" s="876"/>
-      <c r="C140" s="868"/>
-      <c r="D140" s="843"/>
-      <c r="E140" s="844"/>
-      <c r="F140" s="844"/>
-      <c r="G140" s="845"/>
-      <c r="H140" s="245"/>
-      <c r="I140" s="246"/>
-      <c r="J140" s="247"/>
-    </row>
-    <row r="141" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A141" s="821"/>
-      <c r="B141" s="876"/>
-      <c r="C141" s="868"/>
-      <c r="D141" s="815"/>
-      <c r="E141" s="816"/>
-      <c r="F141" s="816"/>
-      <c r="G141" s="817"/>
-      <c r="H141" s="245"/>
-      <c r="I141" s="246"/>
-      <c r="J141" s="247"/>
-    </row>
-    <row r="142" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A142" s="820"/>
-      <c r="B142" s="823"/>
-      <c r="C142" s="824"/>
-      <c r="D142" s="815"/>
-      <c r="E142" s="816"/>
-      <c r="F142" s="816"/>
-      <c r="G142" s="817"/>
-      <c r="H142" s="838"/>
-      <c r="I142" s="830"/>
-      <c r="J142" s="832"/>
-    </row>
-    <row r="143" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A143" s="821"/>
-      <c r="B143" s="825"/>
-      <c r="C143" s="826"/>
-      <c r="D143" s="829"/>
-      <c r="E143" s="829"/>
-      <c r="F143" s="829"/>
-      <c r="G143" s="829"/>
-      <c r="H143" s="839"/>
-      <c r="I143" s="831"/>
-      <c r="J143" s="833"/>
-    </row>
-    <row r="144" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A144" s="821"/>
-      <c r="B144" s="825"/>
-      <c r="C144" s="826"/>
-      <c r="D144" s="815"/>
-      <c r="E144" s="816"/>
-      <c r="F144" s="816"/>
-      <c r="G144" s="817"/>
-      <c r="H144" s="839"/>
-      <c r="I144" s="831"/>
-      <c r="J144" s="833"/>
-    </row>
-    <row r="145" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A145" s="821"/>
-      <c r="B145" s="825"/>
-      <c r="C145" s="826"/>
-      <c r="D145" s="815"/>
-      <c r="E145" s="816"/>
-      <c r="F145" s="816"/>
-      <c r="G145" s="817"/>
-      <c r="H145" s="839"/>
-      <c r="I145" s="831"/>
-      <c r="J145" s="833"/>
-    </row>
-    <row r="146" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A146" s="821"/>
-      <c r="B146" s="825"/>
-      <c r="C146" s="826"/>
-      <c r="D146" s="818"/>
-      <c r="E146" s="818"/>
-      <c r="F146" s="818"/>
-      <c r="G146" s="818"/>
-      <c r="H146" s="839"/>
-      <c r="I146" s="831"/>
-      <c r="J146" s="833"/>
-    </row>
-    <row r="147" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A147" s="821"/>
-      <c r="B147" s="825"/>
-      <c r="C147" s="826"/>
-      <c r="D147" s="818"/>
-      <c r="E147" s="818"/>
-      <c r="F147" s="818"/>
-      <c r="G147" s="818"/>
-      <c r="H147" s="839"/>
-      <c r="I147" s="831"/>
-      <c r="J147" s="833"/>
-    </row>
-    <row r="148" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A148" s="821"/>
-      <c r="B148" s="825"/>
-      <c r="C148" s="826"/>
-      <c r="D148" s="818"/>
-      <c r="E148" s="818"/>
-      <c r="F148" s="818"/>
-      <c r="G148" s="818"/>
-      <c r="H148" s="839"/>
-      <c r="I148" s="831"/>
-      <c r="J148" s="833"/>
-    </row>
-    <row r="149" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A149" s="821"/>
-      <c r="B149" s="825"/>
-      <c r="C149" s="826"/>
-      <c r="D149" s="819"/>
-      <c r="E149" s="819"/>
-      <c r="F149" s="819"/>
-      <c r="G149" s="819"/>
-      <c r="H149" s="839"/>
-      <c r="I149" s="831"/>
-      <c r="J149" s="833"/>
-    </row>
-    <row r="150" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A150" s="821"/>
-      <c r="B150" s="825"/>
-      <c r="C150" s="826"/>
-      <c r="D150" s="815"/>
-      <c r="E150" s="816"/>
-      <c r="F150" s="816"/>
-      <c r="G150" s="817"/>
-      <c r="H150" s="839"/>
-      <c r="I150" s="831"/>
-      <c r="J150" s="833"/>
-    </row>
-    <row r="151" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A151" s="821"/>
-      <c r="B151" s="825"/>
-      <c r="C151" s="826"/>
-      <c r="D151" s="815"/>
-      <c r="E151" s="816"/>
-      <c r="F151" s="816"/>
-      <c r="G151" s="817"/>
-      <c r="H151" s="839"/>
-      <c r="I151" s="831"/>
-      <c r="J151" s="833"/>
-    </row>
-    <row r="152" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A152" s="821"/>
-      <c r="B152" s="825"/>
-      <c r="C152" s="826"/>
-      <c r="D152" s="818"/>
-      <c r="E152" s="818"/>
-      <c r="F152" s="818"/>
-      <c r="G152" s="818"/>
-      <c r="H152" s="839"/>
-      <c r="I152" s="831"/>
-      <c r="J152" s="833"/>
-    </row>
-    <row r="153" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A153" s="821"/>
-      <c r="B153" s="825"/>
-      <c r="C153" s="826"/>
-      <c r="D153" s="834"/>
-      <c r="E153" s="834"/>
-      <c r="F153" s="834"/>
-      <c r="G153" s="834"/>
-      <c r="H153" s="839"/>
-      <c r="I153" s="831"/>
-      <c r="J153" s="833"/>
-    </row>
-    <row r="154" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A154" s="821"/>
-      <c r="B154" s="825"/>
-      <c r="C154" s="826"/>
-      <c r="D154" s="818"/>
-      <c r="E154" s="818"/>
-      <c r="F154" s="818"/>
-      <c r="G154" s="818"/>
-      <c r="H154" s="839"/>
-      <c r="I154" s="831"/>
-      <c r="J154" s="833"/>
-    </row>
-    <row r="155" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A155" s="821"/>
-      <c r="B155" s="825"/>
-      <c r="C155" s="826"/>
-      <c r="D155" s="815"/>
-      <c r="E155" s="816"/>
-      <c r="F155" s="816"/>
-      <c r="G155" s="817"/>
-      <c r="H155" s="839"/>
-      <c r="I155" s="831"/>
-      <c r="J155" s="833"/>
-    </row>
-    <row r="156" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A156" s="821"/>
-      <c r="B156" s="825"/>
-      <c r="C156" s="826"/>
-      <c r="D156" s="815"/>
-      <c r="E156" s="816"/>
-      <c r="F156" s="816"/>
-      <c r="G156" s="817"/>
-      <c r="H156" s="839"/>
-      <c r="I156" s="831"/>
-      <c r="J156" s="833"/>
-    </row>
-    <row r="157" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A157" s="821"/>
-      <c r="B157" s="825"/>
-      <c r="C157" s="826"/>
-      <c r="D157" s="834"/>
-      <c r="E157" s="834"/>
-      <c r="F157" s="834"/>
-      <c r="G157" s="834"/>
-      <c r="H157" s="839"/>
-      <c r="I157" s="831"/>
-      <c r="J157" s="833"/>
-    </row>
-    <row r="158" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A158" s="821"/>
-      <c r="B158" s="825"/>
-      <c r="C158" s="826"/>
-      <c r="D158" s="818"/>
-      <c r="E158" s="818"/>
-      <c r="F158" s="818"/>
-      <c r="G158" s="818"/>
-      <c r="H158" s="839"/>
-      <c r="I158" s="831"/>
-      <c r="J158" s="833"/>
-    </row>
-    <row r="159" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A159" s="821"/>
-      <c r="B159" s="825"/>
-      <c r="C159" s="826"/>
-      <c r="D159" s="815"/>
-      <c r="E159" s="816"/>
-      <c r="F159" s="816"/>
-      <c r="G159" s="817"/>
-      <c r="H159" s="839"/>
-      <c r="I159" s="831"/>
-      <c r="J159" s="833"/>
-    </row>
-    <row r="160" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A160" s="821"/>
-      <c r="B160" s="825"/>
-      <c r="C160" s="826"/>
-      <c r="D160" s="843"/>
-      <c r="E160" s="844"/>
-      <c r="F160" s="844"/>
-      <c r="G160" s="845"/>
-      <c r="H160" s="839"/>
-      <c r="I160" s="831"/>
-      <c r="J160" s="833"/>
-    </row>
-    <row r="161" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A161" s="821"/>
-      <c r="B161" s="825"/>
-      <c r="C161" s="826"/>
-      <c r="D161" s="818"/>
-      <c r="E161" s="818"/>
-      <c r="F161" s="818"/>
-      <c r="G161" s="818"/>
-      <c r="H161" s="839"/>
-      <c r="I161" s="831"/>
-      <c r="J161" s="833"/>
-    </row>
-    <row r="162" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A162" s="821"/>
-      <c r="B162" s="825"/>
-      <c r="C162" s="826"/>
-      <c r="D162" s="818"/>
-      <c r="E162" s="818"/>
-      <c r="F162" s="818"/>
-      <c r="G162" s="818"/>
-      <c r="H162" s="839"/>
-      <c r="I162" s="831"/>
-      <c r="J162" s="833"/>
-    </row>
-    <row r="163" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A163" s="821"/>
-      <c r="B163" s="825"/>
-      <c r="C163" s="826"/>
-      <c r="D163" s="843"/>
-      <c r="E163" s="844"/>
-      <c r="F163" s="844"/>
-      <c r="G163" s="845"/>
-      <c r="H163" s="839"/>
-      <c r="I163" s="831"/>
-      <c r="J163" s="833"/>
-    </row>
-    <row r="164" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A164" s="821"/>
-      <c r="B164" s="825"/>
-      <c r="C164" s="826"/>
-      <c r="D164" s="819"/>
-      <c r="E164" s="819"/>
-      <c r="F164" s="819"/>
-      <c r="G164" s="819"/>
-      <c r="H164" s="839"/>
-      <c r="I164" s="831"/>
-      <c r="J164" s="833"/>
-    </row>
-    <row r="165" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A165" s="821"/>
-      <c r="B165" s="825"/>
-      <c r="C165" s="826"/>
-      <c r="D165" s="815"/>
-      <c r="E165" s="816"/>
-      <c r="F165" s="816"/>
-      <c r="G165" s="817"/>
-      <c r="H165" s="839"/>
-      <c r="I165" s="831"/>
-      <c r="J165" s="833"/>
-    </row>
-    <row r="166" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A166" s="821"/>
-      <c r="B166" s="825"/>
-      <c r="C166" s="826"/>
-      <c r="D166" s="815"/>
-      <c r="E166" s="816"/>
-      <c r="F166" s="816"/>
-      <c r="G166" s="817"/>
-      <c r="H166" s="839"/>
-      <c r="I166" s="831"/>
-      <c r="J166" s="833"/>
-    </row>
-    <row r="167" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A167" s="821"/>
-      <c r="B167" s="825"/>
-      <c r="C167" s="826"/>
-      <c r="D167" s="818"/>
-      <c r="E167" s="818"/>
-      <c r="F167" s="818"/>
-      <c r="G167" s="818"/>
-      <c r="H167" s="839"/>
-      <c r="I167" s="831"/>
-      <c r="J167" s="833"/>
-    </row>
-    <row r="168" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A168" s="821"/>
-      <c r="B168" s="825"/>
-      <c r="C168" s="826"/>
-      <c r="D168" s="818"/>
-      <c r="E168" s="818"/>
-      <c r="F168" s="818"/>
-      <c r="G168" s="818"/>
-      <c r="H168" s="839"/>
-      <c r="I168" s="831"/>
-      <c r="J168" s="833"/>
-    </row>
-    <row r="169" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A169" s="821"/>
-      <c r="B169" s="825"/>
-      <c r="C169" s="826"/>
-      <c r="D169" s="818"/>
-      <c r="E169" s="818"/>
-      <c r="F169" s="818"/>
-      <c r="G169" s="818"/>
-      <c r="H169" s="839"/>
-      <c r="I169" s="831"/>
-      <c r="J169" s="833"/>
-    </row>
-    <row r="170" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A170" s="821"/>
-      <c r="B170" s="825"/>
-      <c r="C170" s="826"/>
-      <c r="D170" s="815"/>
-      <c r="E170" s="816"/>
-      <c r="F170" s="816"/>
-      <c r="G170" s="817"/>
-      <c r="H170" s="839"/>
-      <c r="I170" s="831"/>
-      <c r="J170" s="833"/>
-    </row>
-    <row r="171" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A171" s="821"/>
-      <c r="B171" s="825"/>
-      <c r="C171" s="826"/>
-      <c r="D171" s="818"/>
-      <c r="E171" s="818"/>
-      <c r="F171" s="818"/>
-      <c r="G171" s="818"/>
-      <c r="H171" s="839"/>
-      <c r="I171" s="831"/>
-      <c r="J171" s="833"/>
-    </row>
-    <row r="172" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A172" s="821"/>
-      <c r="B172" s="825"/>
-      <c r="C172" s="826"/>
-      <c r="D172" s="818"/>
-      <c r="E172" s="818"/>
-      <c r="F172" s="818"/>
-      <c r="G172" s="818"/>
-      <c r="H172" s="839"/>
-      <c r="I172" s="831"/>
-      <c r="J172" s="833"/>
-    </row>
-    <row r="173" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A173" s="821"/>
-      <c r="B173" s="825"/>
-      <c r="C173" s="826"/>
-      <c r="D173" s="815"/>
-      <c r="E173" s="816"/>
-      <c r="F173" s="816"/>
-      <c r="G173" s="817"/>
-      <c r="H173" s="839"/>
-      <c r="I173" s="831"/>
-      <c r="J173" s="833"/>
-    </row>
-    <row r="174" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A174" s="821"/>
-      <c r="B174" s="825"/>
-      <c r="C174" s="826"/>
-      <c r="D174" s="818"/>
-      <c r="E174" s="818"/>
-      <c r="F174" s="818"/>
-      <c r="G174" s="818"/>
-      <c r="H174" s="839"/>
-      <c r="I174" s="831"/>
-      <c r="J174" s="833"/>
-    </row>
-    <row r="175" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A175" s="821"/>
-      <c r="B175" s="825"/>
-      <c r="C175" s="826"/>
-      <c r="D175" s="818"/>
-      <c r="E175" s="818"/>
-      <c r="F175" s="818"/>
-      <c r="G175" s="818"/>
-      <c r="H175" s="839"/>
-      <c r="I175" s="831"/>
-      <c r="J175" s="833"/>
-    </row>
-    <row r="176" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A176" s="821"/>
-      <c r="B176" s="825"/>
-      <c r="C176" s="826"/>
-      <c r="D176" s="818"/>
-      <c r="E176" s="818"/>
-      <c r="F176" s="818"/>
-      <c r="G176" s="818"/>
-      <c r="H176" s="839"/>
-      <c r="I176" s="831"/>
-      <c r="J176" s="833"/>
-    </row>
-    <row r="177" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A177" s="821"/>
-      <c r="B177" s="825"/>
-      <c r="C177" s="826"/>
-      <c r="D177" s="815"/>
-      <c r="E177" s="816"/>
-      <c r="F177" s="816"/>
-      <c r="G177" s="817"/>
-      <c r="H177" s="839"/>
-      <c r="I177" s="831"/>
-      <c r="J177" s="833"/>
-    </row>
-    <row r="178" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A178" s="821"/>
-      <c r="B178" s="825"/>
-      <c r="C178" s="826"/>
-      <c r="D178" s="818"/>
-      <c r="E178" s="818"/>
-      <c r="F178" s="818"/>
-      <c r="G178" s="818"/>
-      <c r="H178" s="839"/>
-      <c r="I178" s="831"/>
-      <c r="J178" s="833"/>
-    </row>
-    <row r="179" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A179" s="821"/>
-      <c r="B179" s="825"/>
-      <c r="C179" s="826"/>
-      <c r="D179" s="818"/>
-      <c r="E179" s="818"/>
-      <c r="F179" s="818"/>
-      <c r="G179" s="818"/>
-      <c r="H179" s="839"/>
-      <c r="I179" s="831"/>
-      <c r="J179" s="833"/>
-    </row>
-    <row r="180" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A180" s="821"/>
-      <c r="B180" s="825"/>
-      <c r="C180" s="826"/>
-      <c r="D180" s="818"/>
-      <c r="E180" s="818"/>
-      <c r="F180" s="818"/>
-      <c r="G180" s="818"/>
-      <c r="H180" s="839"/>
-      <c r="I180" s="831"/>
-      <c r="J180" s="833"/>
-    </row>
-    <row r="181" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A181" s="821"/>
-      <c r="B181" s="825"/>
-      <c r="C181" s="826"/>
-      <c r="D181" s="834"/>
-      <c r="E181" s="834"/>
-      <c r="F181" s="834"/>
-      <c r="G181" s="834"/>
-      <c r="H181" s="839"/>
-      <c r="I181" s="831"/>
-      <c r="J181" s="833"/>
-    </row>
-    <row r="182" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A182" s="821"/>
-      <c r="B182" s="825"/>
-      <c r="C182" s="826"/>
-      <c r="D182" s="818"/>
-      <c r="E182" s="818"/>
-      <c r="F182" s="818"/>
-      <c r="G182" s="818"/>
-      <c r="H182" s="839"/>
-      <c r="I182" s="831"/>
-      <c r="J182" s="833"/>
-    </row>
-    <row r="183" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A183" s="821"/>
-      <c r="B183" s="825"/>
-      <c r="C183" s="826"/>
-      <c r="D183" s="815"/>
-      <c r="E183" s="816"/>
-      <c r="F183" s="816"/>
-      <c r="G183" s="817"/>
-      <c r="H183" s="839"/>
-      <c r="I183" s="831"/>
-      <c r="J183" s="833"/>
-    </row>
-    <row r="184" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A184" s="821"/>
-      <c r="B184" s="825"/>
-      <c r="C184" s="826"/>
-      <c r="D184" s="894"/>
-      <c r="E184" s="894"/>
-      <c r="F184" s="894"/>
-      <c r="G184" s="894"/>
-      <c r="H184" s="839"/>
-      <c r="I184" s="831"/>
-      <c r="J184" s="833"/>
-    </row>
-    <row r="185" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A185" s="821"/>
-      <c r="B185" s="825"/>
-      <c r="C185" s="826"/>
-      <c r="D185" s="834"/>
-      <c r="E185" s="834"/>
-      <c r="F185" s="834"/>
-      <c r="G185" s="834"/>
-      <c r="H185" s="839"/>
-      <c r="I185" s="831"/>
-      <c r="J185" s="833"/>
-    </row>
-    <row r="186" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A186" s="822"/>
-      <c r="B186" s="827"/>
-      <c r="C186" s="828"/>
-      <c r="D186" s="818"/>
-      <c r="E186" s="818"/>
-      <c r="F186" s="818"/>
-      <c r="G186" s="818"/>
-      <c r="H186" s="840"/>
-      <c r="I186" s="841"/>
-      <c r="J186" s="842"/>
-    </row>
-    <row r="187" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A187" s="885"/>
-      <c r="B187" s="823"/>
-      <c r="C187" s="888"/>
-      <c r="D187" s="835"/>
-      <c r="E187" s="836"/>
-      <c r="F187" s="836"/>
-      <c r="G187" s="837"/>
-      <c r="H187" s="838"/>
-      <c r="I187" s="830"/>
-      <c r="J187" s="832"/>
-    </row>
-    <row r="188" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A188" s="886"/>
-      <c r="B188" s="825"/>
-      <c r="C188" s="889"/>
-      <c r="D188" s="879"/>
-      <c r="E188" s="880"/>
-      <c r="F188" s="880"/>
-      <c r="G188" s="881"/>
-      <c r="H188" s="839"/>
-      <c r="I188" s="831"/>
-      <c r="J188" s="833"/>
-    </row>
-    <row r="189" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A189" s="886"/>
-      <c r="B189" s="825"/>
-      <c r="C189" s="889"/>
-      <c r="D189" s="818"/>
-      <c r="E189" s="818"/>
-      <c r="F189" s="818"/>
-      <c r="G189" s="818"/>
-      <c r="H189" s="839"/>
-      <c r="I189" s="831"/>
-      <c r="J189" s="833"/>
-    </row>
-    <row r="190" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A190" s="886"/>
-      <c r="B190" s="825"/>
-      <c r="C190" s="889"/>
-      <c r="D190" s="819"/>
-      <c r="E190" s="819"/>
-      <c r="F190" s="819"/>
-      <c r="G190" s="819"/>
-      <c r="H190" s="839"/>
-      <c r="I190" s="831"/>
-      <c r="J190" s="833"/>
-    </row>
-    <row r="191" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A191" s="886"/>
-      <c r="B191" s="825"/>
-      <c r="C191" s="889"/>
-      <c r="D191" s="815"/>
-      <c r="E191" s="816"/>
-      <c r="F191" s="816"/>
-      <c r="G191" s="817"/>
-      <c r="H191" s="839"/>
-      <c r="I191" s="831"/>
-      <c r="J191" s="833"/>
-    </row>
-    <row r="192" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A192" s="886"/>
-      <c r="B192" s="825"/>
-      <c r="C192" s="889"/>
-      <c r="D192" s="815"/>
-      <c r="E192" s="816"/>
-      <c r="F192" s="816"/>
-      <c r="G192" s="817"/>
-      <c r="H192" s="839"/>
-      <c r="I192" s="831"/>
-      <c r="J192" s="833"/>
-    </row>
-    <row r="193" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A193" s="886"/>
-      <c r="B193" s="825"/>
-      <c r="C193" s="889"/>
-      <c r="D193" s="818"/>
-      <c r="E193" s="818"/>
-      <c r="F193" s="818"/>
-      <c r="G193" s="818"/>
-      <c r="H193" s="839"/>
-      <c r="I193" s="831"/>
-      <c r="J193" s="833"/>
-    </row>
-    <row r="194" spans="1:10" ht="17.250000" customHeight="1">
-      <c r="A194" s="886"/>
-      <c r="B194" s="825"/>
-      <c r="C194" s="889"/>
-      <c r="D194" s="834"/>
-      <c r="E194" s="834"/>
-      <c r="F194" s="834"/>
-      <c r="G194" s="834"/>
-      <c r="H194" s="839"/>
-      <c r="I194" s="831"/>
-      <c r="J194" s="833"/>
-    </row>
-    <row r="195" spans="1:10">
-      <c r="A195" s="887"/>
-      <c r="B195" s="827"/>
-      <c r="C195" s="890"/>
-      <c r="D195" s="834"/>
-      <c r="E195" s="834"/>
-      <c r="F195" s="834"/>
-      <c r="G195" s="834"/>
-      <c r="H195" s="840"/>
-      <c r="I195" s="841"/>
-      <c r="J195" s="842"/>
-    </row>
-    <row r="196" spans="1:10">
-      <c r="A196" s="108"/>
-      <c r="D196" s="891"/>
-      <c r="E196" s="892"/>
-      <c r="F196" s="892"/>
-      <c r="G196" s="893"/>
-    </row>
   </sheetData>
-  <mergeCells count="224">
+  <mergeCells count="88">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="C3:E3"/>
@@ -23567,142 +21986,6 @@
     <mergeCell ref="D60:G60"/>
     <mergeCell ref="D61:G61"/>
     <mergeCell ref="D62:G62"/>
-    <mergeCell ref="D63:G63"/>
-    <mergeCell ref="D64:G64"/>
-    <mergeCell ref="D65:G65"/>
-    <mergeCell ref="D66:G66"/>
-    <mergeCell ref="D67:G67"/>
-    <mergeCell ref="D68:G68"/>
-    <mergeCell ref="D69:G69"/>
-    <mergeCell ref="D70:G70"/>
-    <mergeCell ref="D71:G71"/>
-    <mergeCell ref="D72:G72"/>
-    <mergeCell ref="D73:G73"/>
-    <mergeCell ref="D74:G74"/>
-    <mergeCell ref="D75:G75"/>
-    <mergeCell ref="D76:G76"/>
-    <mergeCell ref="D77:G77"/>
-    <mergeCell ref="D78:G78"/>
-    <mergeCell ref="D79:G79"/>
-    <mergeCell ref="D80:G80"/>
-    <mergeCell ref="D81:G81"/>
-    <mergeCell ref="D82:G82"/>
-    <mergeCell ref="D83:G83"/>
-    <mergeCell ref="D84:G84"/>
-    <mergeCell ref="D85:G85"/>
-    <mergeCell ref="D86:G86"/>
-    <mergeCell ref="D87:G87"/>
-    <mergeCell ref="D88:G88"/>
-    <mergeCell ref="D89:G89"/>
-    <mergeCell ref="D90:G90"/>
-    <mergeCell ref="D91:G91"/>
-    <mergeCell ref="D92:G92"/>
-    <mergeCell ref="D93:G93"/>
-    <mergeCell ref="D94:G94"/>
-    <mergeCell ref="D95:G95"/>
-    <mergeCell ref="D96:G96"/>
-    <mergeCell ref="D97:G97"/>
-    <mergeCell ref="D98:G98"/>
-    <mergeCell ref="D99:G99"/>
-    <mergeCell ref="D100:G100"/>
-    <mergeCell ref="D101:G101"/>
-    <mergeCell ref="D102:G102"/>
-    <mergeCell ref="D103:G103"/>
-    <mergeCell ref="D104:G104"/>
-    <mergeCell ref="D105:G105"/>
-    <mergeCell ref="D106:G106"/>
-    <mergeCell ref="D107:G107"/>
-    <mergeCell ref="D108:G108"/>
-    <mergeCell ref="D109:G109"/>
-    <mergeCell ref="D110:G110"/>
-    <mergeCell ref="D111:G111"/>
-    <mergeCell ref="D112:G112"/>
-    <mergeCell ref="D113:G113"/>
-    <mergeCell ref="D114:G114"/>
-    <mergeCell ref="D115:G115"/>
-    <mergeCell ref="D116:G116"/>
-    <mergeCell ref="D117:G117"/>
-    <mergeCell ref="D118:G118"/>
-    <mergeCell ref="D119:G119"/>
-    <mergeCell ref="D120:G120"/>
-    <mergeCell ref="D121:G121"/>
-    <mergeCell ref="D122:G122"/>
-    <mergeCell ref="D123:G123"/>
-    <mergeCell ref="D124:G124"/>
-    <mergeCell ref="D125:G125"/>
-    <mergeCell ref="D126:G126"/>
-    <mergeCell ref="D127:G127"/>
-    <mergeCell ref="D128:G128"/>
-    <mergeCell ref="D129:G129"/>
-    <mergeCell ref="D130:G130"/>
-    <mergeCell ref="D131:G131"/>
-    <mergeCell ref="D132:G132"/>
-    <mergeCell ref="D133:G133"/>
-    <mergeCell ref="D134:G134"/>
-    <mergeCell ref="D135:G135"/>
-    <mergeCell ref="D136:G136"/>
-    <mergeCell ref="D137:G137"/>
-    <mergeCell ref="D138:G138"/>
-    <mergeCell ref="D139:G139"/>
-    <mergeCell ref="D140:G140"/>
-    <mergeCell ref="D141:G141"/>
-    <mergeCell ref="D142:G142"/>
-    <mergeCell ref="D143:G143"/>
-    <mergeCell ref="D144:G144"/>
-    <mergeCell ref="D145:G145"/>
-    <mergeCell ref="D146:G146"/>
-    <mergeCell ref="D147:G147"/>
-    <mergeCell ref="D148:G148"/>
-    <mergeCell ref="D149:G149"/>
-    <mergeCell ref="D150:G150"/>
-    <mergeCell ref="D151:G151"/>
-    <mergeCell ref="D152:G152"/>
-    <mergeCell ref="D153:G153"/>
-    <mergeCell ref="D154:G154"/>
-    <mergeCell ref="D155:G155"/>
-    <mergeCell ref="D156:G156"/>
-    <mergeCell ref="D157:G157"/>
-    <mergeCell ref="D158:G158"/>
-    <mergeCell ref="D159:G159"/>
-    <mergeCell ref="D160:G160"/>
-    <mergeCell ref="D161:G161"/>
-    <mergeCell ref="D162:G162"/>
-    <mergeCell ref="D163:G163"/>
-    <mergeCell ref="D164:G164"/>
-    <mergeCell ref="D165:G165"/>
-    <mergeCell ref="D166:G166"/>
-    <mergeCell ref="D167:G167"/>
-    <mergeCell ref="D168:G168"/>
-    <mergeCell ref="D169:G169"/>
-    <mergeCell ref="D170:G170"/>
-    <mergeCell ref="D171:G171"/>
-    <mergeCell ref="D172:G172"/>
-    <mergeCell ref="D173:G173"/>
-    <mergeCell ref="D174:G174"/>
-    <mergeCell ref="D175:G175"/>
-    <mergeCell ref="D176:G176"/>
-    <mergeCell ref="D177:G177"/>
-    <mergeCell ref="D178:G178"/>
-    <mergeCell ref="D179:G179"/>
-    <mergeCell ref="D180:G180"/>
-    <mergeCell ref="D181:G181"/>
-    <mergeCell ref="D182:G182"/>
-    <mergeCell ref="D183:G183"/>
-    <mergeCell ref="D184:G184"/>
-    <mergeCell ref="D185:G185"/>
-    <mergeCell ref="D186:G186"/>
-    <mergeCell ref="A187:A195"/>
-    <mergeCell ref="B187:C195"/>
-    <mergeCell ref="D187:G187"/>
-    <mergeCell ref="D188:G188"/>
-    <mergeCell ref="D189:G189"/>
-    <mergeCell ref="D190:G190"/>
-    <mergeCell ref="D191:G191"/>
-    <mergeCell ref="D192:G192"/>
-    <mergeCell ref="D193:G193"/>
-    <mergeCell ref="D194:G194"/>
-    <mergeCell ref="D195:G195"/>
-    <mergeCell ref="D196:G196"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.25" right="0.27" top="0.63" bottom="0.54" header="0.30" footer="0.30"/>
@@ -23714,11 +21997,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A51" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.500000"/>
+  <sheetFormatPr defaultRowHeight="16.500000" customHeight="1"/>
   <cols>
     <col min="1" max="1" style="107" width="18.00499916" customWidth="1" outlineLevel="0"/>
     <col min="2" max="2" style="107" width="22.37999916" customWidth="1" outlineLevel="0"/>
@@ -23791,7 +22074,7 @@
       <c r="C4" s="906"/>
       <c r="D4" s="902"/>
       <c r="E4" s="910" t="s">
-        <v>2336</v>
+        <v>2757</v>
       </c>
       <c r="F4" s="911"/>
       <c r="G4" s="912" t="s">
@@ -24077,7 +22360,7 @@
       <c r="C18" s="906"/>
       <c r="D18" s="902"/>
       <c r="E18" s="910" t="s">
-        <v>2336</v>
+        <v>2758</v>
       </c>
       <c r="F18" s="911"/>
       <c r="G18" s="912" t="s">
@@ -24329,7 +22612,7 @@
       <c r="C30" s="906"/>
       <c r="D30" s="902"/>
       <c r="E30" s="910" t="s">
-        <v>2336</v>
+        <v>2759</v>
       </c>
       <c r="F30" s="911"/>
       <c r="G30" s="912" t="s">
@@ -24569,7 +22852,7 @@
       <c r="C42" s="906"/>
       <c r="D42" s="902"/>
       <c r="E42" s="910" t="s">
-        <v>2336</v>
+        <v>2760</v>
       </c>
       <c r="F42" s="911"/>
       <c r="G42" s="912" t="s">
@@ -24786,10 +23069,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L82"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView topLeftCell="A91" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.500000"/>
@@ -24893,7 +23176,7 @@
       <c r="J5" s="1304"/>
       <c r="K5" s="1304"/>
     </row>
-    <row r="6" spans="1:12" ht="29.050000">
+    <row r="6" spans="1:12" ht="42.300000">
       <c r="A6" s="1168" t="s">
         <v>1468</v>
       </c>
@@ -25988,7 +24271,6 @@
       <c r="J53" s="1336"/>
       <c r="K53" s="1337"/>
     </row>
-    <row r="54" spans="1:11"/>
     <row r="55" spans="1:11" ht="31.500000">
       <c r="A55" s="1188" t="s">
         <v>2643</v>
@@ -26539,7 +24821,6 @@
       <c r="J80" s="1336"/>
       <c r="K80" s="1337"/>
     </row>
-    <row r="81"/>
     <row r="82" ht="31.500000" customHeight="1"/>
     <row r="83" ht="16.500000" customHeight="1"/>
     <row r="84" ht="16.500000" customHeight="1"/>
